--- a/HW3/GibbsTableComparison.xlsx
+++ b/HW3/GibbsTableComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Douments\SCHOOL\Aersp450\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B36E04-EC50-4282-A369-41B3D43AC14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BBBCA-8F67-40FA-BD92-2BCC48F2BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14550" yWindow="540" windowWidth="13995" windowHeight="15210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>Obs</t>
   </si>
@@ -47,21 +47,56 @@
     <t>1,4,7</t>
   </si>
   <si>
-    <t>Est Vel</t>
-  </si>
-  <si>
-    <t>δV</t>
-  </si>
-  <si>
     <t>% error</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>I (deg)</t>
+  </si>
+  <si>
+    <t>Ω (deg)</t>
+  </si>
+  <si>
+    <t>ω (deg)</t>
+  </si>
+  <si>
+    <t>Est Vel (m/s)</t>
+  </si>
+  <si>
+    <t>δV (m/s)</t>
+  </si>
+  <si>
+    <t>Corrupted</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>a (km)</t>
+  </si>
+  <si>
+    <t>Δf (deg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,15 +107,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -168,11 +209,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -184,16 +296,85 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,127 +655,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I8" sqref="I8:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7979.2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>7958.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20.950199999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>7979.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7974</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.1951999999999998</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6.5100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7979.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7971.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.7267999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
-        <v>7979.2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E3" s="11">
-        <v>7958.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>20.950199999999999</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.2626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D9" s="25">
+        <v>8000.00000001628</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="25">
+        <v>20</v>
+      </c>
+      <c r="G9" s="25">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26">
+        <v>67.000000000988905</v>
+      </c>
+      <c r="I9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>7979.2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>7974</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5.1951999999999998</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.5100000000000005E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D10" s="31">
+        <v>7999.9999999966603</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="31">
+        <v>20</v>
+      </c>
+      <c r="G10" s="31">
+        <v>45</v>
+      </c>
+      <c r="H10" s="32">
+        <v>66.999999999829996</v>
+      </c>
+      <c r="I10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <v>7979.2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7971.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7.7267999999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>9.6799999999999997E-2</v>
-      </c>
+      <c r="D11" s="33">
+        <v>8000.0000000012697</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="33">
+        <v>20</v>
+      </c>
+      <c r="G11" s="33">
+        <v>45</v>
+      </c>
+      <c r="H11" s="34">
+        <v>67.000000000054598</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7946.8017945842903</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.1245</v>
+      </c>
+      <c r="F12" s="25">
+        <v>20.000096281272398</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45</v>
+      </c>
+      <c r="H12" s="26">
+        <v>66.050852893683597</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>7986.7849417846401</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="F13" s="32">
+        <v>20.0000960873422</v>
+      </c>
+      <c r="G13" s="32">
+        <v>45</v>
+      </c>
+      <c r="H13" s="32">
+        <v>66.757731277146405</v>
+      </c>
+      <c r="I13" s="28">
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31">
+        <v>7980.3132293851904</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.128</v>
+      </c>
+      <c r="F14" s="31">
+        <v>20.000096128598901</v>
+      </c>
+      <c r="G14" s="32">
+        <v>45</v>
+      </c>
+      <c r="H14" s="32">
+        <v>66.670342252341598</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A1:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,127 +1062,322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25483AB7-562B-413D-9612-46B9B156E5A4}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I8" sqref="I8:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7746.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>7745.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>7746.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>7746.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8.0159999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7746.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7746.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.6779000000000006E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
-        <v>7746.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E3" s="11">
-        <v>7745.9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7.3000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D9" s="25">
+        <v>7999.9999999998599</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="25">
+        <v>20</v>
+      </c>
+      <c r="G9" s="25">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26">
+        <v>66.9999999999946</v>
+      </c>
+      <c r="I9" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>7746.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>7746.6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8.0159999999999997E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D10" s="25">
+        <v>7999.9999999998599</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="25">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25">
+        <v>45</v>
+      </c>
+      <c r="H10" s="26">
+        <v>66.9999999999946</v>
+      </c>
+      <c r="I10" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <v>7746.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>7746.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>6.6779000000000006E-5</v>
+      <c r="D11" s="33">
+        <v>7999.9999999998599</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="33">
+        <v>20</v>
+      </c>
+      <c r="G11" s="33">
+        <v>45</v>
+      </c>
+      <c r="H11" s="34">
+        <v>66.9999999999946</v>
+      </c>
+      <c r="I11" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7998.6241283895697</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.129</v>
+      </c>
+      <c r="F12" s="25">
+        <v>20.000013244372099</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45</v>
+      </c>
+      <c r="H12" s="26">
+        <v>66.956785247258395</v>
+      </c>
+      <c r="I12" s="28">
+        <v>10.0001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>8000.1521298997104</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="32">
+        <v>19.999892071644201</v>
+      </c>
+      <c r="G13" s="32">
+        <v>45</v>
+      </c>
+      <c r="H13" s="32">
+        <v>67.005427765517595</v>
+      </c>
+      <c r="I13" s="28">
+        <v>10.0001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31">
+        <v>8000.0121608140098</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="31">
+        <v>19.999999122847399</v>
+      </c>
+      <c r="G14" s="32">
+        <v>45</v>
+      </c>
+      <c r="H14" s="32">
+        <v>67.000966268422403</v>
+      </c>
+      <c r="I14" s="28">
+        <v>10.0001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A1:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -730,127 +1385,323 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFED70B-2EFB-4A5F-A08A-F3BBD8F4A312}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6857.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6857.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>9.1644999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6857.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6857.9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3.6555000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>6857.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.5418999999999999E-5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>6857.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.6115000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23"/>
+      <c r="C8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
-        <v>6857.9</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="D3" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E3" s="11">
-        <v>6857.9</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="G3" s="10">
-        <v>9.1644999999999997E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D9" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="25">
+        <v>20</v>
+      </c>
+      <c r="G9" s="25">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26">
+        <v>66.999999999999901</v>
+      </c>
+      <c r="I9" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>6857.9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E4" s="11">
-        <v>6857.9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.5100000000000001E-2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>3.6555000000000002E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D10" s="25">
+        <v>7999.9999999998599</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="25">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25">
+        <v>45</v>
+      </c>
+      <c r="H10" s="26">
+        <v>66.9999999999946</v>
+      </c>
+      <c r="I10" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <v>6857.9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5.5418999999999999E-5</v>
-      </c>
-      <c r="E5" s="11">
-        <v>6857.9</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>3.6115000000000002E-4</v>
+      <c r="D11" s="33">
+        <v>7999.9999999998599</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="33">
+        <v>20</v>
+      </c>
+      <c r="G11" s="33">
+        <v>45</v>
+      </c>
+      <c r="H11" s="34">
+        <v>66.9999999999946</v>
+      </c>
+      <c r="I11" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="25">
+        <v>7999.9088817245301</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="25">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G12" s="26">
+        <v>45</v>
+      </c>
+      <c r="H12" s="26">
+        <v>66.994545607947401</v>
+      </c>
+      <c r="I12" s="28">
+        <v>30.0001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="32">
+        <v>8000.0023453323502</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="F13" s="32">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G13" s="32">
+        <v>45</v>
+      </c>
+      <c r="H13" s="32">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="I13" s="28">
+        <v>30.0001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31">
+        <v>7999.9919360027097</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.13</v>
+      </c>
+      <c r="F14" s="31">
+        <v>20.0000266831365</v>
+      </c>
+      <c r="G14" s="32">
+        <v>45</v>
+      </c>
+      <c r="H14" s="32">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="I14" s="28">
+        <v>30.0001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HW3/GibbsTableComparison.xlsx
+++ b/HW3/GibbsTableComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Douments\SCHOOL\Aersp450\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BBBCA-8F67-40FA-BD92-2BCC48F2BDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614C773F-C046-4230-BE72-0E9DD074B7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,8 +95,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -300,80 +300,80 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,11 +658,12 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -672,25 +673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -712,7 +713,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -736,7 +737,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +761,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -784,268 +785,268 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>8000.00000001628</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>0.13</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <v>20</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>45</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="20">
         <v>67.000000000988905</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="25">
         <v>7999.9999999966603</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="23">
         <v>0.13</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <v>20</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <v>45</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="26">
         <v>66.999999999829996</v>
       </c>
-      <c r="I10" s="26">
-        <v>1</v>
+      <c r="I10" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <v>8000.0000000012697</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>0.13</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <v>20</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <v>45</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="28">
         <v>67.000000000054598</v>
       </c>
-      <c r="I11" s="34">
-        <v>1</v>
+      <c r="I11" s="28">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>7946.8017945842903</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0.1245</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="19">
         <v>20.000096281272398</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>45</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>66.050852893683597</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>1.0001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26">
         <v>7986.7849417846401</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <v>0.12870000000000001</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="26">
         <v>20.0000960873422</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="26">
         <v>45</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="26">
         <v>66.757731277146405</v>
       </c>
-      <c r="I13" s="28">
-        <v>1.0001</v>
+      <c r="I13" s="22">
+        <v>2.0001000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <v>7980.3132293851904</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <v>0.128</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>20.000096128598901</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="26">
         <v>45</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="26">
         <v>66.670342252341598</v>
       </c>
-      <c r="I14" s="28">
-        <v>1.0001</v>
+      <c r="I14" s="22">
+        <v>3.0001000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1065,7 +1066,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,25 +1080,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -1119,7 +1120,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1143,7 +1144,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1168,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1191,183 +1192,183 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>0.13</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <v>20</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>45</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="20">
         <v>66.9999999999946</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>0.13</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="19">
         <v>20</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="19">
         <v>45</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="20">
         <v>66.9999999999946</v>
       </c>
-      <c r="I10" s="26">
-        <v>10</v>
+      <c r="I10" s="20">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>0.13</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <v>20</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <v>45</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="28">
         <v>66.9999999999946</v>
       </c>
-      <c r="I11" s="34">
-        <v>10</v>
+      <c r="I11" s="28">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>7998.6241283895697</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0.129</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="19">
         <v>20.000013244372099</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>45</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>66.956785247258395</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>10.0001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26">
         <v>8000.1521298997104</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <v>0.13</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="26">
         <v>19.999892071644201</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="26">
         <v>45</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="26">
         <v>67.005427765517595</v>
       </c>
-      <c r="I13" s="28">
-        <v>10.0001</v>
+      <c r="I13" s="22">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <v>8000.0121608140098</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <v>0.13</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>19.999999122847399</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="26">
         <v>45</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="26">
         <v>67.000966268422403</v>
       </c>
-      <c r="I14" s="28">
-        <v>10.0001</v>
+      <c r="I14" s="22">
+        <v>30.0001</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1389,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,25 +1404,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -1443,7 +1444,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1468,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1491,7 +1492,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1515,183 +1516,183 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="C8" s="35" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>8000</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>0.13</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="19">
         <v>20</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="19">
         <v>45</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="20">
         <v>66.999999999999901</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="20">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>0.13</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="19">
         <v>20</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="19">
         <v>45</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="20">
         <v>66.9999999999946</v>
       </c>
-      <c r="I10" s="26">
-        <v>30</v>
+      <c r="I10" s="20">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="27">
         <v>7999.9999999998599</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>0.13</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="27">
         <v>20</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="27">
         <v>45</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="28">
         <v>66.9999999999946</v>
       </c>
-      <c r="I11" s="34">
-        <v>30</v>
+      <c r="I11" s="28">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>7999.9088817245301</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0.13</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="19">
         <v>19.989999999999998</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>45</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>66.994545607947401</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>30.0001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26">
         <v>8000.0023453323502</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <v>0.13</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="26">
         <v>19.989999999999998</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="26">
         <v>45</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="26">
         <v>66.989999999999995</v>
       </c>
-      <c r="I13" s="28">
-        <v>30.0001</v>
+      <c r="I13" s="22">
+        <v>59.999899999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <v>7999.9919360027097</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <v>0.13</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>20.0000266831365</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="26">
         <v>45</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="26">
         <v>66.989999999999995</v>
       </c>
-      <c r="I14" s="28">
-        <v>30.0001</v>
+      <c r="I14" s="22">
+        <v>90.000100000000003</v>
       </c>
     </row>
   </sheetData>
